--- a/relatorios/repasses_liberados/dentistas/25884864876/2023-08-25_relatorio_repasses_25884864876.xlsx
+++ b/relatorios/repasses_liberados/dentistas/25884864876/2023-08-25_relatorio_repasses_25884864876.xlsx
@@ -3956,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10688,10 +10688,10 @@
         <v>1</v>
       </c>
       <c r="M217">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N217">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -12360,10 +12360,10 @@
         <v>1</v>
       </c>
       <c r="M255">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N255">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N281">
         <v>0</v>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14384,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -15440,10 +15440,10 @@
         <v>0.5</v>
       </c>
       <c r="M325">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N325">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -15484,10 +15484,10 @@
         <v>0.324561</v>
       </c>
       <c r="M326">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N326">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15528,10 +15528,10 @@
         <v>0.175439</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N327">
-        <v>2.105268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15748,10 +15748,10 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="M332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N332">
-        <v>23.272736</v>
+        <v>17.454552</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -17904,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N381">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/25884864876/2023-08-25_relatorio_repasses_25884864876.xlsx
+++ b/relatorios/repasses_liberados/dentistas/25884864876/2023-08-25_relatorio_repasses_25884864876.xlsx
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3956,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4088,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4968,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N87">
-        <v>9.576000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5056,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5100,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N90">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N96">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N107">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6200,10 +6200,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6244,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N116">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N118">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6376,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6420,10 +6420,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N120">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6640,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N125">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6816,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N129">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6904,10 +6904,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7212,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N138">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7608,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
-        <v>8.819999999999999</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N157">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8092,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N158">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N159">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8488,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N167">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N173">
-        <v>6.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8796,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N174">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N175">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8884,10 +8884,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N176">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9104,10 +9104,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9236,10 +9236,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N184">
-        <v>7.244999999999999</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9368,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N187">
-        <v>7.244999999999999</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9588,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N192">
-        <v>5.184</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10204,10 +10204,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N206">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10688,10 +10688,10 @@
         <v>1</v>
       </c>
       <c r="M217">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10776,10 +10776,10 @@
         <v>0.5</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
-        <v>114.8</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10820,10 +10820,10 @@
         <v>0.5</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
-        <v>114.8</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10996,10 +10996,10 @@
         <v>0.46072</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
-        <v>103.754144</v>
+        <v>77.81560800000001</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11040,10 +11040,10 @@
         <v>0.060556</v>
       </c>
       <c r="M225">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N225">
-        <v>1.7924576</v>
+        <v>1.3443432</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11172,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="M228">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N228">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11348,10 +11348,10 @@
         <v>0.888889</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N232">
-        <v>21.333336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11392,10 +11392,10 @@
         <v>0.111111</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>0.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12008,10 +12008,10 @@
         <v>1</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N252">
         <v>0</v>
@@ -12272,10 +12272,10 @@
         <v>1</v>
       </c>
       <c r="M253">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N253">
-        <v>2</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12360,10 +12360,10 @@
         <v>1</v>
       </c>
       <c r="M255">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12404,10 +12404,10 @@
         <v>0.5</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
-        <v>17.1</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12448,10 +12448,10 @@
         <v>0.5</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N257">
-        <v>17.1</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13372,10 +13372,10 @@
         <v>1</v>
       </c>
       <c r="M278">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13416,10 +13416,10 @@
         <v>1</v>
       </c>
       <c r="M279">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N279">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N282">
         <v>0</v>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -13680,10 +13680,10 @@
         <v>1</v>
       </c>
       <c r="M285">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N285">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -13988,10 +13988,10 @@
         <v>1</v>
       </c>
       <c r="M292">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N292">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14076,10 +14076,10 @@
         <v>1</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14164,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14384,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -14472,10 +14472,10 @@
         <v>1</v>
       </c>
       <c r="M303">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N303">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -14736,10 +14736,10 @@
         <v>1</v>
       </c>
       <c r="M309">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -14824,10 +14824,10 @@
         <v>1</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N311">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N313">
         <v>0</v>
@@ -15440,10 +15440,10 @@
         <v>0.5</v>
       </c>
       <c r="M325">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N325">
-        <v>65</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -15484,10 +15484,10 @@
         <v>0.324561</v>
       </c>
       <c r="M326">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N326">
-        <v>0</v>
+        <v>9.607005600000001</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15528,10 +15528,10 @@
         <v>0.175439</v>
       </c>
       <c r="M327">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
-        <v>0</v>
+        <v>2.807024</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -15748,10 +15748,10 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N332">
-        <v>17.454552</v>
+        <v>23.272736</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15792,10 +15792,10 @@
         <v>1</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -15968,10 +15968,10 @@
         <v>0.090909</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N337">
-        <v>0.272727</v>
+        <v>65</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16056,10 +16056,10 @@
         <v>0.090909</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N339">
-        <v>0.272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16452,10 +16452,10 @@
         <v>1</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N348">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -17288,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17332,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -17596,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -17728,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -17904,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -18388,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N393">
         <v>0</v>
